--- a/Dictionaries/DISPCODE.xlsx
+++ b/Dictionaries/DISPCODE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30190DDA-8A31-45B8-BFD2-9B54322ADF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{30190DDA-8A31-45B8-BFD2-9B54322ADF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D029147-A408-4A4B-B29B-F51362A0301D}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{F7CA2E77-6603-45E1-9B6F-ACBD78D3E7C0}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{F7CA2E77-6603-45E1-9B6F-ACBD78D3E7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Value</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Partial Complete Interview</t>
-  </si>
-  <si>
-    <t>DISPCODE</t>
   </si>
 </sst>
 </file>
@@ -624,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E331946F-2272-4E76-B57D-F8668CE117AD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,59 +635,54 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>356261</v>
+      </c>
+      <c r="D2" s="1">
+        <v>82.22</v>
+      </c>
+      <c r="E2" s="8">
+        <v>74.540000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>356261</v>
-      </c>
-      <c r="D3" s="1">
-        <v>82.22</v>
-      </c>
-      <c r="E3" s="8">
-        <v>74.540000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="3" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1200</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C3" s="11">
         <v>77062</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D3" s="12">
         <v>17.78</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E3" s="13">
         <v>25.46</v>
       </c>
     </row>
